--- a/multibeam_filepaths_sorted.xlsx
+++ b/multibeam_filepaths_sorted.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\socce\Documents\Grad_School\Research\R_Projects\WFS_Multibeam_Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87D4467-F4CD-48A7-8CFC-604E022D77E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042EE72E-CC9F-449F-AE73-90DF6D865334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="multibeam_compilation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">multibeam_compilation!$A$1:$O$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">multibeam_compilation!$B$1:$P$81</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="212">
   <si>
     <t>Site</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>1_Cruises/2018_08_HOG_SWFMG/QimeraProjects/2018-08-HOG/Export/Mustache_Ext.bag</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -1511,2714 +1514,3077 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="44.7109375" customWidth="1"/>
-    <col min="11" max="11" width="59.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="44.7109375" customWidth="1"/>
+    <col min="12" max="12" width="59.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
       <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>20</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
       <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
         <v>19</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>20</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>78</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
         <v>79</v>
       </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
       <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>20</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>80</v>
       </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
       <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
         <v>26</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>20</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
         <v>52</v>
       </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
       <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
         <v>19</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>20</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>53</v>
       </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
       <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
         <v>19</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>20</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
         <v>55</v>
       </c>
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
       <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
         <v>26</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>20</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>56</v>
       </c>
-      <c r="L9" t="s">
-        <v>18</v>
-      </c>
       <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" t="s">
         <v>26</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>20</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="L10" t="s">
-        <v>18</v>
-      </c>
       <c r="M10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
         <v>19</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>20</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
       <c r="M11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
         <v>19</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>20</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>60</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
         <v>61</v>
       </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
       <c r="M12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" t="s">
         <v>19</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>20</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>62</v>
       </c>
-      <c r="L13" t="s">
-        <v>18</v>
-      </c>
       <c r="M13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" t="s">
         <v>19</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>20</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>74</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>122</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
         <v>75</v>
       </c>
-      <c r="L14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>74</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>122</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>21</v>
       </c>
-      <c r="L15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>122</v>
       </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
         <v>23</v>
       </c>
-      <c r="L16" t="s">
-        <v>18</v>
-      </c>
       <c r="M16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" t="s">
         <v>26</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>123</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>122</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>21</v>
       </c>
-      <c r="L17" t="s">
-        <v>18</v>
-      </c>
       <c r="M17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" t="s">
         <v>26</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>124</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
         <v>64</v>
       </c>
-      <c r="L18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" t="s">
         <v>20</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>5</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>21</v>
       </c>
-      <c r="L19" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" t="s">
         <v>20</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>50</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>6</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>65</v>
       </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
         <v>66</v>
       </c>
-      <c r="L20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="M20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" t="s">
         <v>20</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>6</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>21</v>
       </c>
-      <c r="L21" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="M21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" t="s">
         <v>20</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>68</v>
       </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
         <v>25</v>
       </c>
-      <c r="L22" t="s">
-        <v>18</v>
-      </c>
       <c r="M22" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" t="s">
         <v>26</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>123</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>3</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>68</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>21</v>
       </c>
-      <c r="L23" t="s">
-        <v>18</v>
-      </c>
       <c r="M23" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" t="s">
         <v>26</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>124</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>67</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>68</v>
       </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
         <v>69</v>
       </c>
-      <c r="L24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="M24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" t="s">
         <v>20</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>67</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>21</v>
       </c>
-      <c r="L25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="M25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" t="s">
         <v>20</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>14</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>4</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
         <v>27</v>
       </c>
-      <c r="L26" t="s">
-        <v>18</v>
-      </c>
       <c r="M26" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" t="s">
         <v>26</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>20</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>4</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>24</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>21</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>28</v>
       </c>
-      <c r="L27" t="s">
-        <v>18</v>
-      </c>
       <c r="M27" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" t="s">
         <v>26</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>20</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="3">
+      <c r="C28" s="3">
         <v>1807</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="E28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="L28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="3" t="s">
+      <c r="M28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="3">
+      <c r="C29" s="3">
         <v>1807</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="3">
+      <c r="C30" s="3">
         <v>1808</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="L30" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" s="3" t="s">
+      <c r="M30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="3">
+      <c r="C31" s="3">
         <v>1808</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L31" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="E32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="L32" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" s="3" t="s">
+      <c r="M33" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>5</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>29</v>
       </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s">
         <v>30</v>
       </c>
-      <c r="L34" t="s">
-        <v>18</v>
-      </c>
       <c r="M34" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" t="s">
         <v>26</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>20</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>5</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>29</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>21</v>
       </c>
-      <c r="L35" t="s">
-        <v>18</v>
-      </c>
       <c r="M35" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" t="s">
         <v>26</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>20</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>50</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>70</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>29</v>
       </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" t="s">
         <v>71</v>
       </c>
-      <c r="L36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="M36" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" t="s">
         <v>20</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>70</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>29</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>21</v>
       </c>
-      <c r="L37" t="s">
-        <v>18</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="M37" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" t="s">
         <v>20</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>50</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>72</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>29</v>
       </c>
-      <c r="D38" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s">
         <v>73</v>
       </c>
-      <c r="L38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="M38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>50</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>72</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>29</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>21</v>
       </c>
-      <c r="L39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="M39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>14</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>31</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>32</v>
       </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
         <v>33</v>
       </c>
-      <c r="L40" t="s">
-        <v>18</v>
-      </c>
       <c r="M40" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" t="s">
         <v>34</v>
       </c>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>31</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>32</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>21</v>
       </c>
-      <c r="L41" t="s">
-        <v>18</v>
-      </c>
       <c r="M41" t="s">
+        <v>18</v>
+      </c>
+      <c r="N41" t="s">
         <v>34</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>14</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>35</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>32</v>
       </c>
-      <c r="D42" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
         <v>36</v>
       </c>
-      <c r="L42" t="s">
-        <v>18</v>
-      </c>
       <c r="M42" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" t="s">
         <v>34</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>14</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>35</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>32</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>21</v>
       </c>
-      <c r="L43" t="s">
-        <v>18</v>
-      </c>
       <c r="M43" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" t="s">
         <v>34</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>37</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>38</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>125</v>
       </c>
-      <c r="D44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" t="s">
         <v>39</v>
       </c>
-      <c r="L44" t="s">
-        <v>18</v>
-      </c>
       <c r="M44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" t="s">
         <v>34</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>44</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="M45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>42</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>38</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>125</v>
       </c>
-      <c r="D46" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="s">
         <v>43</v>
       </c>
-      <c r="L46" t="s">
-        <v>18</v>
-      </c>
       <c r="M46" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" t="s">
         <v>34</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>44</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="M47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>37</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>40</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>119</v>
       </c>
-      <c r="D48" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" t="s">
         <v>41</v>
       </c>
-      <c r="L48" t="s">
-        <v>18</v>
-      </c>
       <c r="M48" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" t="s">
         <v>26</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>44</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>37</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>40</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>119</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>21</v>
       </c>
-      <c r="L49" t="s">
-        <v>18</v>
-      </c>
       <c r="M49" t="s">
+        <v>18</v>
+      </c>
+      <c r="N49" t="s">
         <v>26</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>44</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>46</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>38</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>119</v>
       </c>
-      <c r="D50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
         <v>47</v>
       </c>
-      <c r="L50" t="s">
-        <v>18</v>
-      </c>
       <c r="M50" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" t="s">
         <v>26</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>44</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>400</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>46</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>38</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>119</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>21</v>
       </c>
-      <c r="L51" t="s">
-        <v>18</v>
-      </c>
       <c r="M51" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" t="s">
         <v>26</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>44</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>46</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>48</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>119</v>
       </c>
-      <c r="D52" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
         <v>49</v>
       </c>
-      <c r="L52" t="s">
-        <v>18</v>
-      </c>
       <c r="M52" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" t="s">
         <v>26</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>44</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>46</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>48</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>119</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>21</v>
       </c>
-      <c r="L53" t="s">
-        <v>18</v>
-      </c>
       <c r="M53" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" t="s">
         <v>26</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>44</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
         <v>42</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>40</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>119</v>
       </c>
-      <c r="D54" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" t="s">
         <v>45</v>
       </c>
-      <c r="L54" t="s">
-        <v>18</v>
-      </c>
       <c r="M54" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" t="s">
         <v>26</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>44</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
         <v>42</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>40</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>119</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>21</v>
       </c>
-      <c r="L55" t="s">
-        <v>18</v>
-      </c>
       <c r="M55" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" t="s">
         <v>26</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>44</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>400</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
         <v>107</v>
       </c>
-      <c r="D56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="J56" t="s">
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="K56" t="s">
         <v>108</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
         <v>107</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>21</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
         <v>92</v>
       </c>
-      <c r="D58" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="J58" t="s">
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="K58" t="s">
         <v>93</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
         <v>92</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>21</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>95</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
         <v>76</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>96</v>
       </c>
-      <c r="D60" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="J60" t="s">
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="K60" t="s">
         <v>97</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
         <v>76</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>96</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>21</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>98</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
         <v>109</v>
       </c>
-      <c r="D62" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="J62" t="s">
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="K62" t="s">
         <v>110</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
         <v>109</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>21</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>111</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
         <v>127</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>761401</v>
       </c>
-      <c r="D64" t="s">
-        <v>16</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" t="s">
         <v>166</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>164</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
         <v>165</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>181</v>
       </c>
-      <c r="D65" t="s">
-        <v>16</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" t="s">
         <v>175</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>164</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
         <v>165</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>197</v>
       </c>
-      <c r="D66" t="s">
-        <v>16</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" t="s">
         <v>176</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>164</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
         <v>165</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>240</v>
       </c>
-      <c r="D67" t="s">
-        <v>16</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" t="s">
         <v>181</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>164</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
         <v>165</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>128</v>
       </c>
-      <c r="D68" t="s">
-        <v>16</v>
-      </c>
-      <c r="J68" t="s">
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" t="s">
         <v>167</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>164</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
         <v>165</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>129</v>
       </c>
-      <c r="D69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69" t="s">
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" t="s">
         <v>168</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>164</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
         <v>165</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>130</v>
       </c>
-      <c r="D70" t="s">
-        <v>16</v>
-      </c>
-      <c r="J70" t="s">
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" t="s">
         <v>169</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>164</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
         <v>165</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>132</v>
       </c>
-      <c r="D71" t="s">
-        <v>16</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" t="s">
         <v>170</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>164</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
         <v>165</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>133</v>
       </c>
-      <c r="D72" t="s">
-        <v>16</v>
-      </c>
-      <c r="J72" t="s">
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" t="s">
         <v>171</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>164</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
         <v>165</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>134</v>
       </c>
-      <c r="D73" t="s">
-        <v>16</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="E73" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" t="s">
         <v>172</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>164</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
         <v>165</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>135</v>
       </c>
-      <c r="D74" t="s">
-        <v>16</v>
-      </c>
-      <c r="J74" t="s">
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" t="s">
         <v>173</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>164</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
         <v>165</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>131</v>
       </c>
-      <c r="D75" t="s">
-        <v>16</v>
-      </c>
-      <c r="J75" t="s">
+      <c r="E75" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" t="s">
         <v>174</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>164</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
         <v>165</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>137</v>
       </c>
-      <c r="D76" t="s">
-        <v>16</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" t="s">
         <v>177</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>164</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
         <v>165</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>138</v>
       </c>
-      <c r="D77" t="s">
-        <v>16</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="E77" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" t="s">
         <v>178</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>164</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
         <v>165</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>142</v>
       </c>
-      <c r="D78" t="s">
-        <v>16</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" t="s">
         <v>179</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>164</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
         <v>165</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>143</v>
       </c>
-      <c r="D79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J79" t="s">
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" t="s">
         <v>182</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>164</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
         <v>165</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>136</v>
       </c>
-      <c r="D80" t="s">
-        <v>16</v>
-      </c>
-      <c r="J80" t="s">
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" t="s">
         <v>180</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>164</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
         <v>165</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>144</v>
       </c>
-      <c r="D81" t="s">
-        <v>16</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81" t="s">
         <v>183</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>164</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
         <v>165</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>145</v>
       </c>
-      <c r="D82" t="s">
-        <v>16</v>
-      </c>
-      <c r="J82" t="s">
+      <c r="E82" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" t="s">
         <v>184</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>164</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
         <v>165</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>146</v>
       </c>
-      <c r="D83" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" t="s">
+      <c r="E83" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" t="s">
         <v>185</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>164</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
         <v>165</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>147</v>
       </c>
-      <c r="D84" t="s">
-        <v>16</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="E84" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84" t="s">
         <v>186</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>164</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
         <v>165</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>148</v>
       </c>
-      <c r="D85" t="s">
-        <v>16</v>
-      </c>
-      <c r="J85" t="s">
+      <c r="E85" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" t="s">
         <v>187</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>164</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
         <v>165</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>149</v>
       </c>
-      <c r="D86" t="s">
-        <v>16</v>
-      </c>
-      <c r="J86" t="s">
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="K86" t="s">
         <v>188</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>164</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
         <v>165</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>150</v>
       </c>
-      <c r="D87" t="s">
-        <v>16</v>
-      </c>
-      <c r="J87" t="s">
+      <c r="E87" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" t="s">
         <v>189</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>164</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
         <v>165</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>151</v>
       </c>
-      <c r="D88" t="s">
-        <v>16</v>
-      </c>
-      <c r="J88" t="s">
+      <c r="E88" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" t="s">
         <v>190</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>164</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
-      <c r="J89" s="3" t="s">
+      <c r="J89" s="3"/>
+      <c r="K89" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3" t="s">
+      <c r="L89" s="3"/>
+      <c r="M89" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3" t="s">
+      <c r="N89" s="3"/>
+      <c r="O89" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
-      <c r="J90" s="3" t="s">
+      <c r="J90" s="3"/>
+      <c r="K90" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3" t="s">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3" t="s">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
         <v>165</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>152</v>
       </c>
-      <c r="D91" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" t="s">
+      <c r="E91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" t="s">
         <v>193</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>164</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
         <v>165</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>141</v>
       </c>
-      <c r="D92" t="s">
-        <v>16</v>
-      </c>
-      <c r="J92" t="s">
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" t="s">
         <v>194</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>164</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
         <v>165</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>153</v>
       </c>
-      <c r="D93" t="s">
-        <v>16</v>
-      </c>
-      <c r="J93" t="s">
+      <c r="E93" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" t="s">
         <v>195</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>164</v>
       </c>
-      <c r="N93" t="s">
+      <c r="O93" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
         <v>165</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>154</v>
       </c>
-      <c r="D94" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="E94" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" t="s">
         <v>196</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>164</v>
       </c>
-      <c r="N94" t="s">
+      <c r="O94" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
         <v>165</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>155</v>
       </c>
-      <c r="D95" t="s">
-        <v>16</v>
-      </c>
-      <c r="J95" t="s">
+      <c r="E95" t="s">
+        <v>16</v>
+      </c>
+      <c r="K95" t="s">
         <v>197</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>164</v>
       </c>
-      <c r="N95" t="s">
+      <c r="O95" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
         <v>165</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>156</v>
       </c>
-      <c r="D96" t="s">
-        <v>16</v>
-      </c>
-      <c r="J96" t="s">
+      <c r="E96" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" t="s">
         <v>198</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>164</v>
       </c>
-      <c r="N96" t="s">
+      <c r="O96" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
         <v>165</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>157</v>
       </c>
-      <c r="D97" t="s">
-        <v>16</v>
-      </c>
-      <c r="J97" t="s">
+      <c r="E97" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97" t="s">
         <v>199</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>164</v>
       </c>
-      <c r="N97" t="s">
+      <c r="O97" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
         <v>165</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>158</v>
       </c>
-      <c r="D98" t="s">
-        <v>16</v>
-      </c>
-      <c r="J98" t="s">
+      <c r="E98" t="s">
+        <v>16</v>
+      </c>
+      <c r="K98" t="s">
         <v>200</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>164</v>
       </c>
-      <c r="N98" t="s">
+      <c r="O98" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
         <v>165</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>159</v>
       </c>
-      <c r="D99" t="s">
-        <v>16</v>
-      </c>
-      <c r="J99" t="s">
+      <c r="E99" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" t="s">
         <v>201</v>
       </c>
-      <c r="L99" t="s">
+      <c r="M99" t="s">
         <v>164</v>
       </c>
-      <c r="N99" t="s">
+      <c r="O99" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
         <v>165</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>160</v>
       </c>
-      <c r="D100" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" t="s">
+      <c r="E100" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" t="s">
         <v>202</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>164</v>
       </c>
-      <c r="N100" t="s">
+      <c r="O100" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
         <v>165</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>161</v>
       </c>
-      <c r="D101" t="s">
-        <v>16</v>
-      </c>
-      <c r="J101" t="s">
+      <c r="E101" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" t="s">
         <v>203</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>164</v>
       </c>
-      <c r="N101" t="s">
+      <c r="O101" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
         <v>165</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>162</v>
       </c>
-      <c r="D102" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102" t="s">
+      <c r="E102" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" t="s">
         <v>204</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>164</v>
       </c>
-      <c r="N102" t="s">
+      <c r="O102" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
         <v>165</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>163</v>
       </c>
-      <c r="D103" t="s">
-        <v>16</v>
-      </c>
-      <c r="J103" t="s">
+      <c r="E103" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" t="s">
         <v>205</v>
       </c>
-      <c r="L103" t="s">
+      <c r="M103" t="s">
         <v>164</v>
       </c>
-      <c r="N103" t="s">
+      <c r="O103" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
         <v>81</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>82</v>
       </c>
-      <c r="D104" t="s">
-        <v>16</v>
-      </c>
-      <c r="J104" t="s">
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" t="s">
         <v>83</v>
       </c>
-      <c r="L104" t="s">
+      <c r="M104" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
         <v>81</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>82</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>21</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>85</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
         <v>81</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>86</v>
       </c>
-      <c r="D106" t="s">
-        <v>16</v>
-      </c>
-      <c r="J106" t="s">
+      <c r="E106" t="s">
+        <v>16</v>
+      </c>
+      <c r="K106" t="s">
         <v>87</v>
       </c>
-      <c r="L106" t="s">
+      <c r="M106" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
         <v>81</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>86</v>
       </c>
-      <c r="C107"/>
-      <c r="D107" t="s">
+      <c r="D107"/>
+      <c r="E107" t="s">
         <v>21</v>
       </c>
-      <c r="E107"/>
       <c r="F107"/>
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107"/>
-      <c r="J107" t="s">
+      <c r="J107"/>
+      <c r="K107" t="s">
         <v>88</v>
       </c>
-      <c r="K107"/>
-      <c r="L107" t="s">
+      <c r="L107"/>
+      <c r="M107" t="s">
         <v>84</v>
       </c>
-      <c r="M107"/>
       <c r="N107"/>
       <c r="O107"/>
-    </row>
-    <row r="108" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="P107"/>
+    </row>
+    <row r="108" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
         <v>81</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>89</v>
       </c>
-      <c r="C108"/>
-      <c r="D108" t="s">
-        <v>16</v>
-      </c>
-      <c r="E108"/>
+      <c r="D108"/>
+      <c r="E108" t="s">
+        <v>16</v>
+      </c>
       <c r="F108"/>
       <c r="G108"/>
       <c r="H108"/>
       <c r="I108"/>
-      <c r="J108" t="s">
+      <c r="J108"/>
+      <c r="K108" t="s">
         <v>90</v>
       </c>
-      <c r="K108"/>
-      <c r="L108" t="s">
+      <c r="L108"/>
+      <c r="M108" t="s">
         <v>84</v>
       </c>
-      <c r="M108"/>
       <c r="N108"/>
       <c r="O108"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="P108"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
         <v>81</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>89</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>21</v>
       </c>
-      <c r="J109" t="s">
+      <c r="K109" t="s">
         <v>91</v>
       </c>
-      <c r="L109" t="s">
+      <c r="M109" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
         <v>99</v>
       </c>
-      <c r="D110" t="s">
-        <v>16</v>
-      </c>
-      <c r="J110" t="s">
+      <c r="E110" t="s">
+        <v>16</v>
+      </c>
+      <c r="K110" t="s">
         <v>100</v>
       </c>
-      <c r="L110" t="s">
+      <c r="M110" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
         <v>99</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>21</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>101</v>
       </c>
-      <c r="L111" t="s">
+      <c r="M111" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
         <v>102</v>
       </c>
-      <c r="D112" t="s">
-        <v>16</v>
-      </c>
-      <c r="J112" t="s">
+      <c r="E112" t="s">
+        <v>16</v>
+      </c>
+      <c r="K112" t="s">
         <v>103</v>
       </c>
-      <c r="L112" t="s">
+      <c r="M112" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
         <v>102</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>21</v>
       </c>
-      <c r="L113" t="s">
+      <c r="M113" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
         <v>104</v>
       </c>
-      <c r="D114" t="s">
-        <v>16</v>
-      </c>
-      <c r="J114" t="s">
+      <c r="E114" t="s">
+        <v>16</v>
+      </c>
+      <c r="K114" t="s">
         <v>105</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
         <v>104</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>21</v>
       </c>
-      <c r="J115" t="s">
+      <c r="K115" t="s">
         <v>106</v>
       </c>
-      <c r="L115" t="s">
+      <c r="M115" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
         <v>112</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>82</v>
       </c>
-      <c r="D116" t="s">
-        <v>16</v>
-      </c>
-      <c r="J116" t="s">
+      <c r="E116" t="s">
+        <v>16</v>
+      </c>
+      <c r="K116" t="s">
         <v>113</v>
       </c>
-      <c r="L116" t="s">
+      <c r="M116" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
         <v>112</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>82</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>21</v>
       </c>
-      <c r="J117" t="s">
+      <c r="K117" t="s">
         <v>114</v>
       </c>
-      <c r="L117" t="s">
+      <c r="M117" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
         <v>112</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>86</v>
       </c>
-      <c r="D118" t="s">
-        <v>16</v>
-      </c>
-      <c r="J118" t="s">
+      <c r="E118" t="s">
+        <v>16</v>
+      </c>
+      <c r="K118" t="s">
         <v>115</v>
       </c>
-      <c r="L118" t="s">
+      <c r="M118" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
         <v>112</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>86</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>21</v>
       </c>
-      <c r="J119" t="s">
+      <c r="K119" t="s">
         <v>116</v>
       </c>
-      <c r="L119" t="s">
+      <c r="M119" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
         <v>112</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>89</v>
       </c>
-      <c r="D120" t="s">
-        <v>16</v>
-      </c>
-      <c r="J120" t="s">
+      <c r="E120" t="s">
+        <v>16</v>
+      </c>
+      <c r="K120" t="s">
         <v>117</v>
       </c>
-      <c r="L120" t="s">
+      <c r="M120" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
         <v>112</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>89</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>21</v>
       </c>
-      <c r="J121" t="s">
+      <c r="K121" t="s">
         <v>118</v>
       </c>
-      <c r="L121" t="s">
+      <c r="M121" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O121">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:P121">
+    <sortCondition ref="D2:D121"/>
+    <sortCondition ref="M2:M121"/>
+    <sortCondition ref="B2:B121"/>
     <sortCondition ref="C2:C121"/>
-    <sortCondition ref="L2:L121"/>
-    <sortCondition ref="A2:A121"/>
-    <sortCondition ref="B2:B121"/>
-    <sortCondition descending="1" ref="D2:D121"/>
+    <sortCondition descending="1" ref="E2:E121"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/multibeam_filepaths_sorted.xlsx
+++ b/multibeam_filepaths_sorted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\socce\Documents\Grad_School\Research\R_Projects\WFS_Multibeam_Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\socce\Box\WFS_Multibeam_Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042EE72E-CC9F-449F-AE73-90DF6D865334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7ECE30-CF57-4183-A1D3-3189C48FA172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="multibeam_compilation" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="218">
   <si>
     <t>Site</t>
   </si>
@@ -659,13 +659,31 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Kongsberg Simrad EM3000</t>
+  </si>
+  <si>
+    <t>R/V Suncoaster</t>
+  </si>
+  <si>
+    <t>R/V Moana Wave</t>
+  </si>
+  <si>
+    <t>Kongsberg Dual-head EM3000</t>
+  </si>
+  <si>
+    <t>R/V's Bellows &amp; Suncoaster</t>
+  </si>
+  <si>
+    <t>Kongsberg EM1002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,6 +820,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1158,7 +1182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1517,8 +1541,10 @@
   <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C127" sqref="C127"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,150 +2390,150 @@
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>1807</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="3" t="s">
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
         <v>208</v>
       </c>
       <c r="M28" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>1807</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" t="s">
         <v>21</v>
       </c>
       <c r="M29" t="s">
         <v>18</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>1808</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="3" t="s">
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s">
         <v>209</v>
       </c>
       <c r="M30" t="s">
         <v>18</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>1808</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" t="s">
         <v>21</v>
       </c>
       <c r="M31" t="s">
         <v>18</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="3" t="s">
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" t="s">
         <v>210</v>
       </c>
       <c r="M32" t="s">
         <v>18</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" t="s">
         <v>21</v>
       </c>
       <c r="M33" t="s">
         <v>18</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N33" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2695,7 +2721,6 @@
       <c r="N40" t="s">
         <v>34</v>
       </c>
-      <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -2719,7 +2744,6 @@
       <c r="N41" t="s">
         <v>34</v>
       </c>
-      <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -2746,7 +2770,6 @@
       <c r="N42" t="s">
         <v>34</v>
       </c>
-      <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -2770,7 +2793,6 @@
       <c r="N43" t="s">
         <v>34</v>
       </c>
-      <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -2804,32 +2826,32 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
         <v>125</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" t="s">
         <v>21</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N45" s="3" t="s">
+      <c r="M45" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" t="s">
         <v>34</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" t="s">
         <v>44</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45">
         <v>400</v>
       </c>
     </row>
@@ -2865,32 +2887,32 @@
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>125</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" t="s">
         <v>21</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N47" s="3" t="s">
+      <c r="M47" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" t="s">
         <v>34</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="O47" t="s">
         <v>44</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47">
         <v>400</v>
       </c>
     </row>
@@ -3225,6 +3247,13 @@
       <c r="M60" t="s">
         <v>94</v>
       </c>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P60" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -3245,6 +3274,13 @@
       <c r="M61" t="s">
         <v>94</v>
       </c>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P61" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -3263,6 +3299,15 @@
       <c r="M62" t="s">
         <v>94</v>
       </c>
+      <c r="N62" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P62" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -3280,6 +3325,15 @@
       <c r="M63" t="s">
         <v>94</v>
       </c>
+      <c r="N63" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P63" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -3672,7 +3726,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3695,7 +3749,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3718,7 +3772,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3741,7 +3795,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3764,7 +3818,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3787,7 +3841,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3810,7 +3864,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3833,7 +3887,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3856,71 +3910,53 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" t="s">
         <v>165</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" t="s">
         <v>139</v>
       </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3" t="s">
+      <c r="E89" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" t="s">
         <v>191</v>
       </c>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3" t="s">
+      <c r="M89" t="s">
         <v>164</v>
       </c>
-      <c r="N89" s="3"/>
-      <c r="O89" s="3" t="s">
+      <c r="O89" t="s">
         <v>126</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s">
         <v>165</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" t="s">
         <v>140</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3" t="s">
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" t="s">
         <v>192</v>
       </c>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3" t="s">
+      <c r="M90" t="s">
         <v>164</v>
       </c>
-      <c r="N90" s="3"/>
-      <c r="O90" s="3" t="s">
+      <c r="O90" t="s">
         <v>126</v>
       </c>
-      <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3943,7 +3979,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3966,7 +4002,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3989,7 +4025,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4012,7 +4048,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4035,7 +4071,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4238,6 +4274,15 @@
       <c r="M104" t="s">
         <v>84</v>
       </c>
+      <c r="N104" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P104" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
@@ -4258,6 +4303,15 @@
       <c r="M105" t="s">
         <v>84</v>
       </c>
+      <c r="N105" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P105" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -4278,8 +4332,17 @@
       <c r="M106" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N106" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P106" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4289,27 +4352,26 @@
       <c r="C107" t="s">
         <v>86</v>
       </c>
-      <c r="D107"/>
       <c r="E107" t="s">
         <v>21</v>
       </c>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107"/>
       <c r="K107" t="s">
         <v>88</v>
       </c>
-      <c r="L107"/>
       <c r="M107" t="s">
         <v>84</v>
       </c>
-      <c r="N107"/>
-      <c r="O107"/>
-      <c r="P107"/>
-    </row>
-    <row r="108" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N107" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P107" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4319,25 +4381,24 @@
       <c r="C108" t="s">
         <v>89</v>
       </c>
-      <c r="D108"/>
       <c r="E108" t="s">
         <v>16</v>
       </c>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
       <c r="K108" t="s">
         <v>90</v>
       </c>
-      <c r="L108"/>
       <c r="M108" t="s">
         <v>84</v>
       </c>
-      <c r="N108"/>
-      <c r="O108"/>
-      <c r="P108"/>
+      <c r="N108" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P108" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
@@ -4358,6 +4419,15 @@
       <c r="M109" t="s">
         <v>84</v>
       </c>
+      <c r="N109" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O109" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P109" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -4375,6 +4445,9 @@
       <c r="M110" t="s">
         <v>84</v>
       </c>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
@@ -4392,6 +4465,9 @@
       <c r="M111" t="s">
         <v>84</v>
       </c>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -4409,8 +4485,17 @@
       <c r="M112" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P112" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4423,8 +4508,17 @@
       <c r="M113" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P113" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4440,8 +4534,17 @@
       <c r="M114" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P114" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4457,8 +4560,17 @@
       <c r="M115" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P115" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4477,8 +4589,17 @@
       <c r="M116" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P116" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4497,8 +4618,17 @@
       <c r="M117" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O117" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P117" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4517,8 +4647,17 @@
       <c r="M118" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P118" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4537,8 +4676,17 @@
       <c r="M119" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O119" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P119" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4557,8 +4705,17 @@
       <c r="M120" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P120" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4576,6 +4733,15 @@
       </c>
       <c r="M121" t="s">
         <v>84</v>
+      </c>
+      <c r="N121" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="O121" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P121" s="3">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
